--- a/data/metadata/membranes.xlsx
+++ b/data/metadata/membranes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zucfra\Documents\master-thesis\new_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFA9238-C61F-4E71-A7AF-E1EA3B76A88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D35C247-5A05-412A-AA9C-CB80275CD18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{96704DB7-AE57-4A9A-868C-314205C34E18}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
